--- a/PointsTiming/التجمع/Daily/تجمع يوم 21-12-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 21-12-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -1948,7 +1948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2127,9 +2127,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2575,7 +2572,7 @@
   <sheetPr/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
@@ -2603,7 +2600,7 @@
       <c r="F1" s="46"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="45"/>
@@ -2661,322 +2658,322 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:6">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="78"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" customFormat="1" ht="18.5" spans="1:6">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="78"/>
-    </row>
-    <row r="8" s="101" customFormat="1" ht="18.5" spans="1:6">
-      <c r="A8" s="78" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="77"/>
+    </row>
+    <row r="8" s="100" customFormat="1" ht="18.5" spans="1:6">
+      <c r="A8" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="78"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" ht="18.5" spans="1:6">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="78"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" ht="18.5" spans="1:6">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:6">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="78"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" ht="18.5" spans="1:6">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77">
         <v>0.506944444444444</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="78"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" ht="18.5" spans="1:6">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="77">
         <v>0.541666666666667</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="78">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="77">
         <v>0.559027777777778</v>
       </c>
     </row>
     <row r="14" ht="18.5" spans="1:6">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="78"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" ht="18.5" spans="1:6">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="78"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" ht="18.5" spans="1:6">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="78">
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="77">
         <v>0.684027777777778</v>
       </c>
     </row>
     <row r="17" ht="18.5" spans="1:6">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
     </row>
     <row r="18" ht="18.5" spans="1:6">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="78"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" ht="18.5" spans="1:6">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:6">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" ht="18.5" spans="1:6">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
     </row>
     <row r="22" ht="18.5" hidden="1" spans="1:6">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A23" s="78"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
     </row>
     <row r="24" ht="18.5" spans="1:6">
-      <c r="A24" s="78"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
     </row>
     <row r="25" ht="18.5" spans="1:6">
-      <c r="A25" s="78"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
     </row>
     <row r="26" ht="18.5" spans="1:6">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
     </row>
     <row r="27" ht="18.5" spans="1:6">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
     </row>
     <row r="28" ht="18.5" spans="1:6">
-      <c r="A28" s="78" t="s">
+      <c r="A28" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A29" s="78" t="s">
+      <c r="A29" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
     </row>
     <row r="30" ht="18.5" spans="1:6">
-      <c r="A30" s="78"/>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
     </row>
     <row r="31" ht="17.25" customHeight="1" spans="1:6">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
     </row>
     <row r="32" ht="18.5" spans="1:6">
-      <c r="A32" s="78"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="103"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="1:6">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
     </row>
     <row r="34" ht="18.5" hidden="1" spans="1:6">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
     </row>
     <row r="35" ht="18.5" hidden="1" spans="1:6">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
     </row>
     <row r="36" ht="18.5" spans="1:6">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
     </row>
     <row r="37" ht="18.5" spans="1:6">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3070,11 +3067,11 @@
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:4">
       <c r="A4" s="20"/>
@@ -3143,7 +3140,7 @@
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
-      <c r="F10" s="83"/>
+      <c r="F10" s="82"/>
     </row>
     <row r="11" ht="15.5" spans="1:4">
       <c r="A11" s="24" t="s">
@@ -3369,9 +3366,9 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="$A23:$XFD23"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3463,299 +3460,301 @@
       </c>
     </row>
     <row r="6" ht="18.5" spans="1:7">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" ht="18.5" spans="1:7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77">
         <v>0.236111111111111</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" ht="18.5" spans="1:7">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77">
         <v>0.291666666666667</v>
       </c>
     </row>
     <row r="9" ht="18.5" spans="1:7">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" ht="18.5" spans="1:7">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="77">
         <v>0.347222222222222</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77">
         <v>0.361111111111111</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78">
+      <c r="F10" s="77"/>
+      <c r="G10" s="77">
         <v>0.375</v>
       </c>
     </row>
     <row r="11" ht="18.5" spans="1:7">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="77">
         <v>0.388888888888889</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77">
         <v>0.402777777777778</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <v>0.40625</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="77">
         <v>0.416666666666667</v>
       </c>
     </row>
     <row r="12" ht="18.5" spans="1:7">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="77">
         <v>0.430555555555555</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77">
         <v>0.434027777777778</v>
       </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77">
         <v>0.447916666666666</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="77">
         <v>0.458333333333333</v>
       </c>
     </row>
     <row r="13" ht="18.5" spans="1:7">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" ht="18.5" spans="1:8">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77">
         <v>0.527777777777778</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="77">
         <v>0.53125</v>
       </c>
-      <c r="G14" s="78"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" s="77" customFormat="1" ht="18.5" spans="1:7">
-      <c r="A15" s="78" t="s">
+    <row r="15" s="76" customFormat="1" ht="18.5" spans="1:7">
+      <c r="A15" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="77">
         <v>0.555555555555556</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="77">
         <v>0.559027777777778</v>
       </c>
-      <c r="D15" s="78">
+      <c r="D15" s="77">
         <v>0.559027777777778</v>
       </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77">
         <v>0.572916666666666</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="77">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="16" ht="18.5" spans="1:7">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78">
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77">
         <v>0.600694444444444</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77">
+        <v>0.614583333333333</v>
+      </c>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" ht="18.5" spans="1:7">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77">
         <v>0.652777777777777</v>
       </c>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" ht="18.5" spans="1:7">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77">
         <v>0.694444444444444</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="77">
         <v>0.697916666666667</v>
       </c>
-      <c r="G18" s="78"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" ht="18.5" spans="1:7">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="77">
         <v>0.722222222222222</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" ht="18.5" spans="1:7">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77">
         <v>0.777777777777778</v>
       </c>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" ht="18.5" spans="1:7">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" ht="18.5" spans="1:7">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77">
         <v>0.861111111111111</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" ht="18.5" spans="1:7">
-      <c r="A23" s="78" t="s">
+      <c r="A23" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="78">
+      <c r="B23" s="77">
         <v>0.888888888888889</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78">
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77">
         <v>0.902777777777778</v>
       </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78">
+      <c r="F23" s="77"/>
+      <c r="G23" s="77">
         <v>0.916666666666667</v>
       </c>
     </row>
     <row r="24" ht="18.5" spans="1:7">
       <c r="A24" s="40"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" ht="18.5" spans="1:7">
       <c r="A25" s="40"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" ht="18.5" spans="1:7">
       <c r="A26" s="40"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" ht="18.5" spans="1:7">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" ht="15.5" spans="2:7">
       <c r="B28" s="24"/>
@@ -3890,17 +3889,17 @@
       <c r="F1" s="46"/>
     </row>
     <row r="2" ht="18.5" spans="1:6">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3912,7 +3911,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:6">
-      <c r="A4" s="75"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="4" t="s">
         <v>210</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="F25" s="24"/>
     </row>
     <row r="26" ht="15.5" spans="2:6">
-      <c r="B26" s="76"/>
+      <c r="B26" s="75"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -4166,7 +4165,7 @@
     </row>
     <row r="27" ht="15.5" spans="1:6">
       <c r="A27" s="6"/>
-      <c r="B27" s="76"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -4396,13 +4395,13 @@
       <c r="E1" s="27"/>
     </row>
     <row r="2" ht="18.5" spans="1:5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:5">
       <c r="A3" s="20" t="s">
@@ -4518,8 +4517,8 @@
       <c r="C12" s="11"/>
       <c r="D12" s="15"/>
       <c r="E12" s="24"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
     </row>
     <row r="13" ht="15.5" spans="1:12">
       <c r="A13" s="23" t="s">
@@ -4531,8 +4530,8 @@
       <c r="C13" s="11"/>
       <c r="D13" s="15"/>
       <c r="E13" s="38"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
     </row>
     <row r="14" ht="15.5" spans="1:5">
       <c r="A14" s="23" t="s">
@@ -4829,7 +4828,7 @@
       <c r="I3" s="60"/>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
-      <c r="L3" s="64"/>
+      <c r="L3" s="63"/>
     </row>
     <row r="4" ht="15.5" spans="1:12">
       <c r="A4" s="61"/>
@@ -4910,9 +4909,9 @@
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="64"/>
       <c r="L6" s="24"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:12">
@@ -4926,9 +4925,9 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="24"/>
     </row>
     <row r="8" ht="15.5" spans="1:12">
@@ -4942,9 +4941,9 @@
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="65"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="24"/>
     </row>
     <row r="9" ht="15.5" spans="1:12">
@@ -5010,9 +5009,9 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="65"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="24">
         <v>0.402777777777778</v>
       </c>
@@ -5036,9 +5035,9 @@
       <c r="H13" s="24">
         <v>0.4375</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="65"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="24">
         <v>0.444444444444445</v>
       </c>
@@ -5055,7 +5054,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="67"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="53"/>
       <c r="L14" s="22"/>
     </row>
@@ -5064,7 +5063,7 @@
         <v>253</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="62">
+      <c r="C15" s="39">
         <v>0.506944444444444</v>
       </c>
       <c r="D15" s="43">
@@ -5077,7 +5076,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="I15" s="53"/>
-      <c r="J15" s="67"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="53"/>
       <c r="L15" s="22"/>
     </row>
@@ -5093,7 +5092,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="53"/>
-      <c r="J16" s="67"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="53"/>
       <c r="L16" s="22"/>
     </row>
@@ -5117,7 +5116,7 @@
         <v>0.0625</v>
       </c>
       <c r="I17" s="53"/>
-      <c r="J17" s="67"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="53"/>
       <c r="L17" s="22">
         <v>0.569444444444444</v>
@@ -5135,7 +5134,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="53"/>
-      <c r="J18" s="67"/>
+      <c r="J18" s="66"/>
       <c r="K18" s="53"/>
       <c r="L18" s="22">
         <v>0.611111111111111</v>
@@ -5153,7 +5152,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="53"/>
-      <c r="J19" s="67"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="53"/>
       <c r="L19" s="22"/>
     </row>
@@ -5168,9 +5167,9 @@
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="24"/>
     </row>
     <row r="21" ht="15.5" spans="1:12">
@@ -5184,9 +5183,9 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="65"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="24"/>
     </row>
     <row r="22" ht="15.5" spans="1:12">
@@ -5200,9 +5199,9 @@
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="65"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="24"/>
     </row>
     <row r="23" ht="15.5" spans="1:12">
@@ -5216,9 +5215,9 @@
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="65"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="64"/>
       <c r="L23" s="24"/>
     </row>
     <row r="24" ht="15.5" spans="1:12">
@@ -5232,9 +5231,9 @@
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="65"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="64"/>
       <c r="L24" s="24"/>
     </row>
     <row r="25" ht="15.5" spans="1:12">
@@ -5251,7 +5250,7 @@
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
       <c r="I25" s="38"/>
-      <c r="J25" s="68"/>
+      <c r="J25" s="67"/>
       <c r="K25" s="38"/>
       <c r="L25" s="24"/>
     </row>
@@ -5265,7 +5264,7 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="38"/>
-      <c r="J26" s="68"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="38"/>
       <c r="L26" s="24"/>
     </row>
@@ -5279,7 +5278,7 @@
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="38"/>
-      <c r="J27" s="68"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="38"/>
       <c r="L27" s="24"/>
     </row>
@@ -5295,7 +5294,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="68"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="38"/>
       <c r="L28" s="24"/>
     </row>
@@ -5309,7 +5308,7 @@
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="38"/>
-      <c r="J29" s="68"/>
+      <c r="J29" s="67"/>
       <c r="K29" s="38"/>
       <c r="L29" s="24"/>
     </row>
@@ -5324,9 +5323,9 @@
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="24"/>
     </row>
     <row r="31" ht="15.5" spans="1:12">
@@ -5338,13 +5337,13 @@
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="24"/>
     </row>
     <row r="32" ht="15.5" spans="1:12">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="62" t="s">
         <v>257</v>
       </c>
       <c r="B32" s="24"/>
@@ -5355,12 +5354,12 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="38"/>
-      <c r="J32" s="68"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="38"/>
       <c r="L32" s="24"/>
     </row>
     <row r="33" ht="15.5" spans="1:12">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="62" t="s">
         <v>258</v>
       </c>
       <c r="B33" s="24"/>
@@ -5371,7 +5370,7 @@
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="38"/>
-      <c r="J33" s="68"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="38"/>
       <c r="L33" s="24"/>
     </row>
@@ -5386,9 +5385,9 @@
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="65"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="64"/>
       <c r="L34" s="24"/>
     </row>
     <row r="35" ht="15.5" spans="1:12">
@@ -5400,9 +5399,9 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="65"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="64"/>
       <c r="L35" s="24"/>
     </row>
     <row r="36" ht="15.5" spans="1:12">
@@ -5417,7 +5416,7 @@
       <c r="G36" s="24"/>
       <c r="H36" s="24"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="68"/>
+      <c r="J36" s="67"/>
       <c r="K36" s="38"/>
       <c r="L36" s="24"/>
     </row>
@@ -5433,7 +5432,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="38"/>
-      <c r="J37" s="68"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="38"/>
       <c r="L37" s="24"/>
     </row>
@@ -5445,9 +5444,9 @@
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="65"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="64"/>
       <c r="L38" s="24"/>
     </row>
     <row r="39" ht="15.5" spans="1:12">
@@ -5459,9 +5458,9 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="65"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="64"/>
       <c r="L39" s="24"/>
     </row>
     <row r="40" ht="15.5" spans="1:12">
@@ -5475,9 +5474,9 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="65"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="64"/>
       <c r="L40" s="24"/>
     </row>
     <row r="41" ht="15.5" spans="1:12">
@@ -5492,12 +5491,12 @@
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="38"/>
-      <c r="J41" s="68"/>
+      <c r="J41" s="67"/>
       <c r="K41" s="38"/>
       <c r="L41" s="24"/>
     </row>
     <row r="42" ht="15.5" spans="1:12">
-      <c r="A42" s="63"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -5506,7 +5505,7 @@
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="38"/>
-      <c r="J42" s="68"/>
+      <c r="J42" s="67"/>
       <c r="K42" s="38"/>
       <c r="L42" s="24"/>
     </row>
@@ -5518,9 +5517,9 @@
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="65"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="64"/>
       <c r="L43" s="24"/>
     </row>
     <row r="44" ht="15.5" spans="1:12">
@@ -5535,7 +5534,7 @@
       <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="38"/>
-      <c r="J44" s="68"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="38"/>
       <c r="L44" s="24"/>
     </row>
@@ -5550,9 +5549,9 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="65"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="64"/>
       <c r="L45" s="24"/>
     </row>
     <row r="46" ht="15.5" spans="1:12">
@@ -5564,9 +5563,9 @@
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
       <c r="H46" s="24"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="65"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="64"/>
       <c r="L46" s="24"/>
     </row>
     <row r="47" ht="15.5" spans="1:12">
@@ -5581,7 +5580,7 @@
       <c r="G47" s="24"/>
       <c r="H47" s="24"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="68"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="38"/>
       <c r="L47" s="24"/>
     </row>
@@ -5595,7 +5594,7 @@
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
       <c r="I48" s="38"/>
-      <c r="J48" s="68"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="38"/>
       <c r="L48" s="24"/>
     </row>
@@ -5610,9 +5609,9 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="65"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="64"/>
       <c r="L49" s="24"/>
     </row>
     <row r="50" spans="2:12">
@@ -5669,9 +5668,9 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="$A22:$XFD22"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5902,7 +5901,9 @@
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="43">
+        <v>0.586805555555555</v>
+      </c>
       <c r="H14" s="22"/>
     </row>
     <row r="15" ht="15.5" spans="1:8">
@@ -5996,9 +5997,7 @@
         <v>0.82986111111111</v>
       </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="22">
-        <v>0.836805555555556</v>
-      </c>
+      <c r="G20" s="22"/>
       <c r="H20" s="53"/>
     </row>
     <row r="21" ht="15.5" spans="1:8">
@@ -6012,7 +6011,9 @@
       <c r="D21" s="53"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="22">
+        <v>0.878472222222222</v>
+      </c>
       <c r="H21" s="53"/>
     </row>
     <row r="22" ht="15.5" spans="1:8">
@@ -6028,7 +6029,9 @@
         <v>0.913194444444444</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="22">
+        <v>0.920138888888889</v>
+      </c>
       <c r="H22" s="22">
         <v>0.923611111111111</v>
       </c>
@@ -6536,7 +6539,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -6775,9 +6778,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="24">
-        <v>0.621527777777778</v>
-      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="24">
         <v>0.625</v>
       </c>
@@ -6796,7 +6797,9 @@
       <c r="C19" s="24">
         <v>0.663194444444445</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="24">
+        <v>0.666666666666667</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24">
         <v>0.673611111111112</v>
@@ -6811,7 +6814,9 @@
         <v>0.704861111111111</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24">
+        <v>0.711805555555555</v>
+      </c>
       <c r="F20" s="24">
         <v>0.715277777777778</v>
       </c>
@@ -6879,9 +6884,7 @@
       <c r="D25" s="24">
         <v>0.916666666666667</v>
       </c>
-      <c r="E25" s="24">
-        <v>0.920138888888889</v>
-      </c>
+      <c r="E25" s="24"/>
       <c r="F25" s="24">
         <v>0.923611111111111</v>
       </c>
@@ -7809,35 +7812,35 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="101" customFormat="1" ht="18.5" spans="1:3">
+    <row r="6" s="100" customFormat="1" ht="18.5" spans="1:3">
       <c r="A6" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" s="101" customFormat="1" ht="18.5" spans="1:3">
+    <row r="7" s="100" customFormat="1" ht="18.5" spans="1:3">
       <c r="A7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" s="101" customFormat="1" ht="18.5" spans="1:3">
+    <row r="8" s="100" customFormat="1" ht="18.5" spans="1:3">
       <c r="A8" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="38"/>
     </row>
-    <row r="9" s="101" customFormat="1" ht="18.5" spans="1:3">
+    <row r="9" s="100" customFormat="1" ht="18.5" spans="1:3">
       <c r="A9" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
     </row>
-    <row r="10" s="101" customFormat="1" ht="18.5" spans="1:3">
+    <row r="10" s="100" customFormat="1" ht="18.5" spans="1:3">
       <c r="A10" s="24" t="s">
         <v>50</v>
       </c>
@@ -7982,9 +7985,9 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="1"/>
@@ -8085,9 +8088,7 @@
       <c r="A15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="22">
-        <v>0.65625</v>
-      </c>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" ht="15.5" spans="1:2">
       <c r="A16" s="24" t="s">
@@ -8111,7 +8112,9 @@
       <c r="A19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="22">
+        <v>0.822916666666667</v>
+      </c>
     </row>
     <row r="20" ht="15.5" spans="1:2">
       <c r="A20" s="24" t="s">
@@ -9359,7 +9362,7 @@
         <v>0.520833333333333</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="99">
+      <c r="D15" s="98">
         <v>0.527777777777777</v>
       </c>
       <c r="E15" s="43"/>
@@ -9375,7 +9378,7 @@
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="99">
+      <c r="D16" s="98">
         <v>0.569444444444444</v>
       </c>
       <c r="E16" s="43">
@@ -9392,7 +9395,7 @@
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="99"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="43"/>
       <c r="F17" s="43">
         <v>0.618055555555555</v>
@@ -9547,7 +9550,7 @@
       <c r="A33" s="6"/>
     </row>
     <row r="34" ht="15.75" hidden="1" customHeight="1" spans="1:7">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="99" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="17"/>
@@ -10120,10 +10123,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.4272727272727" style="88" customWidth="1"/>
-    <col min="2" max="2" width="15" style="77" customWidth="1"/>
-    <col min="3" max="3" width="15.5727272727273" style="77" customWidth="1"/>
-    <col min="4" max="4" width="11.9090909090909" style="77" customWidth="1"/>
+    <col min="1" max="1" width="25.4272727272727" style="87" customWidth="1"/>
+    <col min="2" max="2" width="15" style="76" customWidth="1"/>
+    <col min="3" max="3" width="15.5727272727273" style="76" customWidth="1"/>
+    <col min="4" max="4" width="11.9090909090909" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" spans="1:4">
@@ -10143,41 +10146,41 @@
       <c r="D2" s="30"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" ht="18.5" spans="1:4">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="92" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" ht="18.5" spans="1:4">
-      <c r="A5" s="92"/>
-      <c r="B5" s="94" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="93" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="94" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="24"/>
@@ -10186,7 +10189,7 @@
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="94" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="24"/>
@@ -10194,7 +10197,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="24">
@@ -10206,7 +10209,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="94" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="24"/>
@@ -10216,7 +10219,7 @@
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="95" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="24"/>
@@ -10227,15 +10230,15 @@
       <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="38"/>
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="96" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="24"/>
@@ -10379,13 +10382,13 @@
       <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="97"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="54"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
     </row>
     <row r="31" ht="17.25" hidden="1" customHeight="1" spans="1:4">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="89" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="54"/>
@@ -10395,7 +10398,7 @@
       <c r="D31" s="54"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="77">
+      <c r="C34" s="76">
         <v>0</v>
       </c>
     </row>
@@ -10477,11 +10480,11 @@
       <c r="A2" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" ht="15.5" spans="1:6">
       <c r="A3" s="61" t="s">
@@ -10542,7 +10545,7 @@
       <c r="F6" s="17"/>
     </row>
     <row r="7" ht="15.5" hidden="1" spans="1:6">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="89" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="17"/>
@@ -10587,10 +10590,10 @@
       <c r="A11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="91"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="15"/>
     </row>
     <row r="12" ht="15.5" spans="1:6">
@@ -10831,7 +10834,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" ht="15.5" spans="1:6">
-      <c r="A37" s="90"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
@@ -10863,7 +10866,7 @@
       <c r="F40" s="15"/>
     </row>
     <row r="41" ht="15.5" spans="1:6">
-      <c r="A41" s="90"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -11068,7 +11071,7 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="85"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:5">
@@ -11077,8 +11080,8 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="86"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:5">
       <c r="A10" s="24" t="s">
@@ -11086,7 +11089,7 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="87"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="1:5">
@@ -11112,7 +11115,7 @@
         <v>144</v>
       </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="88"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="24"/>
       <c r="E13" s="17"/>
     </row>
@@ -11283,10 +11286,10 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
@@ -11315,15 +11318,15 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" ht="18.5" spans="1:7">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" ht="15.5" spans="1:7">
       <c r="A3" s="61" t="s">
@@ -11430,7 +11433,7 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" ht="15.5" spans="1:7">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="83" t="s">
         <v>166</v>
       </c>
       <c r="C10" s="24">
@@ -11522,7 +11525,9 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="F17" s="24">
+        <v>0.739583333333333</v>
+      </c>
       <c r="G17" s="38"/>
     </row>
     <row r="18" ht="15.5" spans="1:7">
